--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources4/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources4/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\thay thế\Resources4\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\26-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources4\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="584">
   <si>
     <t>nActi</t>
   </si>
@@ -1536,197 +1536,44 @@
     <t>Câu 1: Khi contact máy từ OFF sang IG thì:</t>
   </si>
   <si>
-    <t>Rơ le chính ON, rơ le bơm OFF, bơm không quay.</t>
-  </si>
-  <si>
-    <t>Rơ le chính OFF, rơ le bơm ON, bơm quay</t>
-  </si>
-  <si>
-    <t>Rơ le chính OFF, rơ le bơm OFF, bơm không quay.</t>
-  </si>
-  <si>
-    <t>Rơ le chính ON, rơ le bơm OFF, bơm quay.</t>
-  </si>
-  <si>
     <t>Câu 2: Khi contact máy từ IG sang ST thì:</t>
   </si>
   <si>
-    <t>Rơ le chính ON, rơ le bơm ON, bơm quay.</t>
-  </si>
-  <si>
-    <t>Rơ le chính OFF, rơ le bơm ON, bơm quay.</t>
-  </si>
-  <si>
     <t>Câu 3: Khi động cơ nổ, contact máy chuyển từ ST sang IG, bơm vẫn quay vì</t>
   </si>
   <si>
-    <t>Tín hiệu cảm biến Ne gửi về ECU, chân FC của rơ le bơm được nối mass.</t>
-  </si>
-  <si>
-    <t>Tín hiệu cảm biến Ne gửi về ECU, chân FP của rơ le bơm được nối mass.</t>
-  </si>
-  <si>
-    <t>Contact điều khiển bơm ở bộ đo gió ON, chân FC của rơ le bơm được nối mass.</t>
-  </si>
-  <si>
-    <t>Contact điều khiển bơm ở bộ đo gió ON, chân FP của rơ le bơm được nối mass.</t>
-  </si>
-  <si>
     <t>Câu 4: Để kiểm tra hoạt động của bơm, ta sẽ</t>
   </si>
   <si>
-    <t>Nối cực +B và FP với contact ON thì bơm sẽ quay.</t>
-  </si>
-  <si>
-    <t>Nối cực +B và FC với contact ON thì bơm sẽ quay.</t>
-  </si>
-  <si>
-    <t>Nối cực STA và FC với contact ON thì bơm sẽ quay.</t>
-  </si>
-  <si>
-    <t>Nối cực STA và FP với contact ON thì bơm sẽ quay.</t>
-  </si>
-  <si>
     <t>Câu 2: Bơm quay khi contact máy từ IG sang ST do:</t>
   </si>
   <si>
-    <t>Có tín hiệu STA gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
-  </si>
-  <si>
-    <t>Có tín hiệu IG gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
-  </si>
-  <si>
-    <t>Có tín hiệu FC gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
-  </si>
-  <si>
-    <t>Có tín hiệu FP gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
-  </si>
-  <si>
     <t>Câu 1: Các chân của Igniter theo thứ tự của ảnh trên là:</t>
-  </si>
-  <si>
-    <t>T, B, C, EXT, E.</t>
-  </si>
-  <si>
-    <t>T, C, B, EXT, E.</t>
-  </si>
-  <si>
-    <t>B, T, C, EXT, E.</t>
-  </si>
-  <si>
-    <t>T, B, E, EXT, C.</t>
   </si>
   <si>
     <t>Câu 2: Yêu cầu điện áp sinh ra từ cực thứ cấp của bobin đủ khả năng
 phóng ra mass ở khoảng cách tối thiểu là:</t>
   </si>
   <si>
-    <t>13mm</t>
-  </si>
-  <si>
-    <t>14,7mm</t>
-  </si>
-  <si>
-    <t>13cm</t>
-  </si>
-  <si>
-    <t>14,7cm</t>
-  </si>
-  <si>
     <t>Câu 3: Phân loại điện trở kim phun gồm có:</t>
   </si>
   <si>
-    <t>Kim phun có điện trở cao: 13 – 15Ω.</t>
-  </si>
-  <si>
-    <t>Kim phun có điện trở thấp: 2 – 3Ω.</t>
-  </si>
-  <si>
-    <t>Cả A và B đều đúng.</t>
-  </si>
-  <si>
     <t>Câu 4: Đối với bobin không tích hợp transistor công suất</t>
   </si>
   <si>
-    <t>Cực âm bobin nối với chân C của Igniter.</t>
-  </si>
-  <si>
-    <t>Cực âm bobin nối với chân T của Igniter.</t>
-  </si>
-  <si>
-    <t>Cực âm bobin nối với chân T của ECU.</t>
-  </si>
-  <si>
-    <t>Cực âm bobin nối với chân C của ECU.</t>
-  </si>
-  <si>
     <t>Câu 5: Đối với bobin có tích hợp transistor công suất</t>
   </si>
   <si>
-    <t>Chân T của bobin nối với chân C của Igniter.</t>
-  </si>
-  <si>
-    <t>Chân T bobin nối với chân T của Igniter.</t>
-  </si>
-  <si>
-    <t>Chân T bobin nối với chân T của ECU.</t>
-  </si>
-  <si>
-    <t>Chân T bobin nối với chân C của ECU.</t>
-  </si>
-  <si>
     <t>Câu 6: Xác định tín hiệu IGT</t>
   </si>
   <si>
-    <t>Điện áp từ 0V đến 2,4V.</t>
-  </si>
-  <si>
-    <t>Xung vuông 0 – 5V.</t>
-  </si>
-  <si>
-    <t>Xung điện áp 1 – 4V.</t>
-  </si>
-  <si>
-    <t>Điện áp từ 0,5V đến 4,5V.</t>
-  </si>
-  <si>
     <t>Câu 7: Khi kim phun mở, điện áp ở chân #10 là:</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>10V</t>
-  </si>
-  <si>
     <t>Câu 1: Hãy chọn câu đúng về hệ thống điều khiển bướm ga điện tử:</t>
   </si>
   <si>
-    <t>Điều khiển motor xoay bướm ga phù hợp với tín hiệu cảm biến bàn đạp ga.</t>
-  </si>
-  <si>
-    <t>Hệ thống còn dùng để điều khiển tốc độ cầm chừng.</t>
-  </si>
-  <si>
-    <t>Có thể điều khiển công suất động cơ.</t>
-  </si>
-  <si>
-    <t>Tất cả đều đúng.</t>
-  </si>
-  <si>
     <t>Câu 2: Trường hợp có sự bất thường ở một trong hai tín hiệu của cảm biến bàn đạp ga</t>
-  </si>
-  <si>
-    <t>ECU chỉ cho phép điều khiển động cơ ở chế độ hạn chế.</t>
-  </si>
-  <si>
-    <t>ECU điều khiển động cơ ở chế độ không tải.</t>
-  </si>
-  <si>
-    <t>ECU cho động cơ dừng hoạt động.</t>
-  </si>
-  <si>
-    <t>Không có sự thay đổi điều khiển từ ECU.</t>
   </si>
   <si>
     <t>Câu 3: Trường hợp có sự bất thường ở cả hai tín hiệu của cảm biến bàn đạp ga</t>
@@ -1819,6 +1666,168 @@
   </si>
   <si>
     <t>Bài 5: Điều khiển bướm ga điện tử</t>
+  </si>
+  <si>
+    <t>A. Điều khiển motor xoay bướm ga phù hợp với tín hiệu cảm biến bàn đạp ga.</t>
+  </si>
+  <si>
+    <t>B. Hệ thống còn dùng để điều khiển tốc độ cầm chừng.</t>
+  </si>
+  <si>
+    <t>C. Có thể điều khiển công suất động cơ.</t>
+  </si>
+  <si>
+    <t>A. ECU chỉ cho phép điều khiển động cơ ở chế độ hạn chế.</t>
+  </si>
+  <si>
+    <t>B. ECU điều khiển động cơ ở chế độ không tải.</t>
+  </si>
+  <si>
+    <t>C. ECU cho động cơ dừng hoạt động.</t>
+  </si>
+  <si>
+    <t>D. Tất cả đều đúng.</t>
+  </si>
+  <si>
+    <t>D. Không có sự thay đổi điều khiển từ ECU.</t>
+  </si>
+  <si>
+    <t>A. T, B, C, EXT, E.</t>
+  </si>
+  <si>
+    <t>B. T, C, B, EXT, E.</t>
+  </si>
+  <si>
+    <t>C. B, T, C, EXT, E.</t>
+  </si>
+  <si>
+    <t>D. T, B, E, EXT, C.</t>
+  </si>
+  <si>
+    <t>A. 13mm</t>
+  </si>
+  <si>
+    <t>B. 14,7mm</t>
+  </si>
+  <si>
+    <t>C. 13cm</t>
+  </si>
+  <si>
+    <t>D. 14,7cm</t>
+  </si>
+  <si>
+    <t>A. Kim phun có điện trở cao: 13 – 15Ω.</t>
+  </si>
+  <si>
+    <t>B. Kim phun có điện trở thấp: 2 – 3Ω.</t>
+  </si>
+  <si>
+    <t>C. Cả A và B đều đúng.</t>
+  </si>
+  <si>
+    <t>D. Cả A và B đều đúng.</t>
+  </si>
+  <si>
+    <t>D. Cực âm bobin nối với chân C của ECU.</t>
+  </si>
+  <si>
+    <t>D. Chân T bobin nối với chân C của ECU.</t>
+  </si>
+  <si>
+    <t>D. Điện áp từ 0,5V đến 4,5V.</t>
+  </si>
+  <si>
+    <t>D. 10V</t>
+  </si>
+  <si>
+    <t>C. 12V</t>
+  </si>
+  <si>
+    <t>C. 5V</t>
+  </si>
+  <si>
+    <t>A. 0V</t>
+  </si>
+  <si>
+    <t>A. Điện áp từ 0V đến 2,4V.</t>
+  </si>
+  <si>
+    <t>B. Xung vuông 0 – 5V.</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp 1 – 4V.</t>
+  </si>
+  <si>
+    <t>A. Chân T của bobin nối với chân C của Igniter.</t>
+  </si>
+  <si>
+    <t>B. Chân T bobin nối với chân T của Igniter.</t>
+  </si>
+  <si>
+    <t>C. Chân T bobin nối với chân T của ECU.</t>
+  </si>
+  <si>
+    <t>A. Cực âm bobin nối với chân C của Igniter.</t>
+  </si>
+  <si>
+    <t>B. Cực âm bobin nối với chân T của Igniter.</t>
+  </si>
+  <si>
+    <t>C. Cực âm bobin nối với chân T của ECU.</t>
+  </si>
+  <si>
+    <t>A. Rơ le chính ON, rơ le bơm OFF, bơm không quay.</t>
+  </si>
+  <si>
+    <t>A. Có tín hiệu STA gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
+  </si>
+  <si>
+    <t>A. Tín hiệu cảm biến Ne gửi về ECU, chân FC của rơ le bơm được nối mass.</t>
+  </si>
+  <si>
+    <t>B. Rơ le chính OFF, rơ le bơm ON, bơm quay.</t>
+  </si>
+  <si>
+    <t>B. Có tín hiệu IG gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
+  </si>
+  <si>
+    <t>B. Tín hiệu cảm biến Ne gửi về ECU, chân FP của rơ le bơm được nối mass.</t>
+  </si>
+  <si>
+    <t>C. Rơ le chính OFF, rơ le bơm OFF, bơm không quay.</t>
+  </si>
+  <si>
+    <t>C. Có tín hiệu FC gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
+  </si>
+  <si>
+    <t>C. Contact điều khiển bơm ở bộ đo gió ON, chân FC của rơ le bơm được nối mass.</t>
+  </si>
+  <si>
+    <t>D. Rơ le chính ON, rơ le bơm OFF, bơm quay.</t>
+  </si>
+  <si>
+    <t>D. Có tín hiệu FP gửi về ECU, cho nối mass cuộn dây rơ le bơm.</t>
+  </si>
+  <si>
+    <t>D. Contact điều khiển bơm ở bộ đo gió ON, chân FP của rơ le bơm được nối mass.</t>
+  </si>
+  <si>
+    <t>A. Rơ le chính ON, rơ le bơm ON, bơm quay.</t>
+  </si>
+  <si>
+    <t>A. Nối cực +B và FP với contact ON thì bơm sẽ quay.</t>
+  </si>
+  <si>
+    <t>B. Nối cực +B và FC với contact ON thì bơm sẽ quay.</t>
+  </si>
+  <si>
+    <t>C. Nối cực STA và FC với contact ON thì bơm sẽ quay.</t>
+  </si>
+  <si>
+    <t>D. Nối cực STA và FP với contact ON thì bơm sẽ quay.</t>
+  </si>
+  <si>
+    <t>B. Rơ le chính OFF, rơ le bơm ON, bơm quay</t>
   </si>
 </sst>
 </file>
@@ -2046,11 +2055,11 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2369,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="G1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,10 +2445,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>576</v>
+        <v>507</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
@@ -2448,13 +2457,13 @@
         <v>486</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>488</v>
+        <v>583</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>14</v>
@@ -2463,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -2475,25 +2484,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>576</v>
+        <v>508</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -2502,7 +2511,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -2514,25 +2523,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>576</v>
+        <v>509</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>12</v>
@@ -2541,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -2553,25 +2562,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>576</v>
+        <v>510</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>14</v>
@@ -2580,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="M5" s="20"/>
     </row>
@@ -4928,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4990,10 +4999,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>577</v>
+        <v>511</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>526</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
@@ -5002,13 +5011,13 @@
         <v>486</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>14</v>
@@ -5017,7 +5026,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -5029,25 +5038,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>577</v>
+        <v>512</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>526</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5056,7 +5065,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -5068,34 +5077,34 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="20" t="s">
         <v>577</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>498</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -5107,25 +5116,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>577</v>
+        <v>514</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>526</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>14</v>
@@ -5134,7 +5143,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="M5" s="20"/>
     </row>
@@ -5274,8 +5283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="H1" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5339,10 +5348,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>578</v>
+        <v>515</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>527</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -5351,13 +5360,13 @@
         <v>486</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -5366,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -5378,25 +5387,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>505</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5405,7 +5414,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -5417,25 +5426,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>495</v>
-      </c>
       <c r="H4" s="18" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -5444,7 +5453,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -5492,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5555,25 +5564,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>579</v>
+        <v>518</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -5582,7 +5591,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -5595,25 +5604,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>579</v>
+        <v>519</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5622,7 +5631,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -5635,25 +5644,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>579</v>
+        <v>520</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>12</v>
@@ -5662,7 +5671,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -5675,25 +5684,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>579</v>
+        <v>521</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>14</v>
@@ -5702,7 +5711,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -5715,25 +5724,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>579</v>
+        <v>522</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -5742,7 +5751,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -5755,25 +5764,25 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>579</v>
+        <v>523</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>13</v>
@@ -5782,7 +5791,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -5795,34 +5804,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>579</v>
+        <v>524</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>226</v>
+        <v>556</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>228</v>
+        <v>554</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
@@ -5864,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5928,34 +5937,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>580</v>
+        <v>503</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>529</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -5967,25 +5976,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>580</v>
+        <v>504</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>529</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5994,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -6006,25 +6015,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>580</v>
+        <v>505</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>529</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -6033,7 +6042,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -6045,25 +6054,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>580</v>
+        <v>506</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>529</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>14</v>
@@ -6072,13 +6081,13 @@
         <v>14</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="4"/>
@@ -7028,11 +7037,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -7068,10 +7077,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -7107,10 +7116,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="36"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -7146,10 +7155,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="36"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources4/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources4/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\26-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources4\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\30-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources4\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="595">
   <si>
     <t>nActi</t>
   </si>
@@ -1555,33 +1555,9 @@
 phóng ra mass ở khoảng cách tối thiểu là:</t>
   </si>
   <si>
-    <t>Câu 3: Phân loại điện trở kim phun gồm có:</t>
-  </si>
-  <si>
-    <t>Câu 4: Đối với bobin không tích hợp transistor công suất</t>
-  </si>
-  <si>
-    <t>Câu 5: Đối với bobin có tích hợp transistor công suất</t>
-  </si>
-  <si>
-    <t>Câu 6: Xác định tín hiệu IGT</t>
-  </si>
-  <si>
-    <t>Câu 7: Khi kim phun mở, điện áp ở chân #10 là:</t>
-  </si>
-  <si>
     <t>Câu 1: Hãy chọn câu đúng về hệ thống điều khiển bướm ga điện tử:</t>
   </si>
   <si>
-    <t>Câu 2: Trường hợp có sự bất thường ở một trong hai tín hiệu của cảm biến bàn đạp ga</t>
-  </si>
-  <si>
-    <t>Câu 3: Trường hợp có sự bất thường ở cả hai tín hiệu của cảm biến bàn đạp ga</t>
-  </si>
-  <si>
-    <t>Câu 4: Trường hợp có sự bất thường ở một hoặc cả hai tín hiệu của cảm biến bàn đạp ga</t>
-  </si>
-  <si>
     <t>ENDEND</t>
   </si>
   <si>
@@ -1640,12 +1616,6 @@
   </si>
   <si>
     <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources4\Hinh anh cac chuong\\hinh anh c4\\5.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c4\\6.PNG</t>
   </si>
   <si>
     <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c4\\7.PNG</t>
@@ -1716,18 +1686,9 @@
     <t>D. 14,7cm</t>
   </si>
   <si>
-    <t>A. Kim phun có điện trở cao: 13 – 15Ω.</t>
-  </si>
-  <si>
-    <t>B. Kim phun có điện trở thấp: 2 – 3Ω.</t>
-  </si>
-  <si>
     <t>C. Cả A và B đều đúng.</t>
   </si>
   <si>
-    <t>D. Cả A và B đều đúng.</t>
-  </si>
-  <si>
     <t>D. Cực âm bobin nối với chân C của ECU.</t>
   </si>
   <si>
@@ -1743,9 +1704,6 @@
     <t>C. 12V</t>
   </si>
   <si>
-    <t>C. 5V</t>
-  </si>
-  <si>
     <t>A. 0V</t>
   </si>
   <si>
@@ -1827,14 +1785,182 @@
     <t>D. Nối cực STA và FP với contact ON thì bơm sẽ quay.</t>
   </si>
   <si>
-    <t>B. Rơ le chính OFF, rơ le bơm ON, bơm quay</t>
+    <r>
+      <t xml:space="preserve">Bài 1: Mạch điều khiển bơm nhiên liệu
+Dùng contact bơm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sinh viên kết nối thiết bị như hình bên</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c1\\5.PNG</t>
+  </si>
+  <si>
+    <t>Câu 3: Khi động cơ nổ, contact máy chuyển từ ST sang IG, bơm vẫn quay vì:</t>
+  </si>
+  <si>
+    <t>B. Tín hiệu cảm biến Ne gửi về ECU, chân FP của rơ le bơm được nối với mass.</t>
+  </si>
+  <si>
+    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c2\\5.PNG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bài 2: Mạch điều khiển bơm nhiên liệu điều khiển từ ECU
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sinh viên kết nối với thiết bị như hình bên.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c3\\4.PNG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bài 3: Mạch điều khiển bơm nhiên liệu
+Điều khiển từ ECU kiểu cải tiến
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sinh viên kết nối thiết bị như hình bên.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c4\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources4\Hinh anh cac chuong\\hinh anh c4\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c4\\8.PNG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bài 4: Điều khiển đánh lửa và kim phun
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sử dụng Bobin không tích hợp transistor công suất, Igniter và kim phun để kết nối như hình bên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Câu 3: Xác định tín hiệu IGT:</t>
+  </si>
+  <si>
+    <t>Câu 4: Phân loại điện trở kim phun gồm có:</t>
+  </si>
+  <si>
+    <r>
+      <t>A. Kim phun có điện trở cao: 13 - 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B. Kim phun có điện trở thấp: 2 - 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω.</t>
+    </r>
+  </si>
+  <si>
+    <t>D. Cả A và B đều sai.</t>
+  </si>
+  <si>
+    <t>Câu 5: Khi kim phun mở, điện áp ở chân #10 là:</t>
+  </si>
+  <si>
+    <t>B. 5V</t>
+  </si>
+  <si>
+    <t>Câu 6: Đối với bobin không tích hợp transistor công suất:</t>
+  </si>
+  <si>
+    <t>Câu 7: Đối với bobin có tích hợp transistor công suất:</t>
+  </si>
+  <si>
+    <t>\\Resources4\\Hinh anh cac chuong\\hinh anh c5\\5.PNG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bài 5: Điều khiển bướm ga điện tử
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sinh viên kết nối thiết bị như hình bên và nhấn nút Reset.</t>
+    </r>
+  </si>
+  <si>
+    <t>Câu 4: Trường hợp có sự bất thường ở một hoặc cả hai tín hiệu của cảm biến bướm ga:</t>
+  </si>
+  <si>
+    <t>Câu 3: Trường hợp có sự bất thường ở cả hai tín hiệu của cảm biến bàn đạp ga:</t>
+  </si>
+  <si>
+    <t>Câu 2: Trường hợp có sự bất thường ở một trong hai tín hiệu của cảm biến bàn đạp ga:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1927,6 +2053,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2376,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,7 +2569,7 @@
       </c>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -2445,25 +2577,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>486</v>
+        <v>14</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>583</v>
+        <v>14</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>14</v>
@@ -2472,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>575</v>
+        <v>14</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -2484,25 +2616,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -2511,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -2523,34 +2655,34 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -2562,60 +2694,85 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="G6" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="18"/>
-      <c r="F6"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="F7"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -2649,6 +2806,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
@@ -2656,7 +2814,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
-      <c r="F10"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2669,7 +2827,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="F11"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -2682,7 +2840,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2695,7 +2853,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -2754,16 +2912,30 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c1\\1.PNG"/>
     <hyperlink ref="C3" r:id="rId2" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c1\\2.PNG"/>
     <hyperlink ref="C4" r:id="rId3" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c1\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c1\\4.PNG"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4935,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4991,7 +5163,7 @@
       </c>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -4999,25 +5171,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>486</v>
+        <v>14</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>14</v>
@@ -5026,7 +5198,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>575</v>
+        <v>14</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -5034,29 +5206,27 @@
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>487</v>
+      <c r="F3" s="18" t="s">
+        <v>486</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5065,7 +5235,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -5077,25 +5247,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
@@ -5104,7 +5274,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -5116,59 +5286,85 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="G6" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="4"/>
       <c r="D7" s="19"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -5233,7 +5429,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -5246,7 +5442,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5257,7 +5453,7 @@
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -5266,25 +5462,39 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c2\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c2\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c2\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c2\\4.PNG"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="106" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,33 +5550,33 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>486</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -5375,7 +5585,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>575</v>
+        <v>14</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -5383,29 +5593,29 @@
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5414,7 +5624,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -5426,57 +5636,83 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>527</v>
-      </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="G5" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -5485,24 +5721,38 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c3\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c3\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c3\\3.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5557,17 +5807,17 @@
       <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>518</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>528</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -5576,13 +5826,13 @@
         <v>491</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -5591,52 +5841,52 @@
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="108" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>545</v>
+        <v>14</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -5644,74 +5894,74 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>493</v>
+        <v>518</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>492</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>12</v>
+        <v>534</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>14</v>
+        <v>543</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -5724,25 +5974,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>562</v>
+        <v>583</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>536</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -5751,7 +6001,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -5764,106 +6014,147 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>496</v>
+      <c r="F7" s="18" t="s">
+        <v>586</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>497</v>
+      <c r="F8" s="20" t="s">
+        <v>588</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c4\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c4\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c4\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c4\\4.PNG"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources2\Hinh anh cac chuong\\hinh anh c4\\5.PNG"/>
-    <hyperlink ref="C7" r:id="rId6" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c4\\6.PNG"/>
-    <hyperlink ref="C8" r:id="rId7" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c4\\7.PNG"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5871,10 +6162,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5929,7 +6220,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="80.400000000000006" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -5937,34 +6228,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>530</v>
+        <v>14</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>531</v>
+        <v>14</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>532</v>
+        <v>14</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>536</v>
+        <v>14</v>
       </c>
       <c r="M2" s="20"/>
     </row>
@@ -5976,34 +6267,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>499</v>
+      <c r="F3" s="18" t="s">
+        <v>493</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="M3" s="20"/>
     </row>
@@ -6015,34 +6306,34 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>500</v>
+      <c r="F4" s="19" t="s">
+        <v>594</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -6054,58 +6345,98 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>501</v>
+      <c r="F5" s="18" t="s">
+        <v>593</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="4"/>
-      <c r="D6"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4"/>
+      <c r="D7"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c5\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c5\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c5\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources2\\Hinh anh cac chuong\\hinh anh c5\\4.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
